--- a/granularidade_grossa/results/rq2_table_worst.xlsx
+++ b/granularidade_grossa/results/rq2_table_worst.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,26 +490,11 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>roc_auc</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>llama3.2_3b</t>
+          <t>deepseek-r1_8b</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -523,25 +508,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>0.91</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I2" t="n">
-        <v>601</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1768</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -553,25 +529,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I3" t="n">
-        <v>645</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1081</v>
       </c>
     </row>
     <row r="4">
@@ -587,25 +554,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="E4" t="n">
-        <v>0.66</v>
+        <v>0.11</v>
       </c>
       <c r="F4" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1308</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -617,25 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.46</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.59</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I5" t="n">
-        <v>392</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1779</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
@@ -651,25 +600,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1247</v>
-      </c>
-      <c r="J6" t="n">
-        <v>353</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -681,25 +621,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E7" t="n">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="F7" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="G7" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I7" t="n">
-        <v>742</v>
-      </c>
-      <c r="J7" t="n">
-        <v>784</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -715,25 +646,16 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.77</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I8" t="n">
-        <v>445</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2194</v>
       </c>
     </row>
     <row r="9">
@@ -745,31 +667,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7</v>
+        <v>0.32</v>
       </c>
       <c r="F9" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I9" t="n">
-        <v>577</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1275</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>gemma_7b</t>
+          <t>deepseek-r1_14b</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -783,25 +696,16 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.44</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G10" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I10" t="n">
-        <v>796</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1457</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11">
@@ -813,25 +717,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="F11" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="G11" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>969</v>
-      </c>
-      <c r="J11" t="n">
-        <v>484</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -847,25 +742,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="E12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.74</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I12" t="n">
-        <v>507</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2240</v>
       </c>
     </row>
     <row r="13">
@@ -877,25 +763,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>393</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1962</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
@@ -911,25 +788,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="E14" t="n">
-        <v>0.71</v>
+        <v>0.09</v>
       </c>
       <c r="F14" t="n">
-        <v>0.52</v>
+        <v>0.16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I14" t="n">
-        <v>558</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2019</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="15">
@@ -941,25 +809,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
       <c r="E15" t="n">
-        <v>0.61</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
         <v>0.74</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>759</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1046</v>
       </c>
     </row>
     <row r="16">
@@ -975,25 +834,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.43</v>
+        <v>0.84</v>
       </c>
       <c r="E16" t="n">
-        <v>0.67</v>
+        <v>0.26</v>
       </c>
       <c r="F16" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="G16" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I16" t="n">
-        <v>635</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1710</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="17">
@@ -1005,31 +855,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
       <c r="E17" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="F17" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="G17" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>927</v>
-      </c>
-      <c r="J17" t="n">
-        <v>604</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>mistral_7b</t>
+          <t>gemma_7b</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1043,25 +884,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>0.59</v>
       </c>
       <c r="F18" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1546</v>
-      </c>
-      <c r="J18" t="n">
-        <v>82</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19">
@@ -1073,25 +905,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E19" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="G19" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1384</v>
-      </c>
-      <c r="J19" t="n">
-        <v>127</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20">
@@ -1107,25 +930,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
       <c r="E20" t="n">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="F20" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J20" t="n">
-        <v>326</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
@@ -1137,25 +951,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="F21" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>988</v>
-      </c>
-      <c r="J21" t="n">
-        <v>399</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="22">
@@ -1171,25 +976,16 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.71</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.45</v>
-      </c>
       <c r="F22" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="G22" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1067</v>
-      </c>
-      <c r="J22" t="n">
-        <v>361</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="23">
@@ -1201,25 +997,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="E23" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="F23" t="n">
         <v>0.57</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>998</v>
-      </c>
-      <c r="J23" t="n">
-        <v>395</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="24">
@@ -1235,25 +1022,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
       <c r="F24" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="G24" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1476</v>
-      </c>
-      <c r="J24" t="n">
-        <v>107</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="25">
@@ -1265,31 +1043,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="E25" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="F25" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="G25" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1488</v>
-      </c>
-      <c r="J25" t="n">
-        <v>83</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>deepseek-r1_14b</t>
+          <t>llama3.2_3b</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1303,25 +1072,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="G26" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1353</v>
-      </c>
-      <c r="J26" t="n">
-        <v>130</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="27">
@@ -1333,25 +1093,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="E27" t="n">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="F27" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1036</v>
-      </c>
-      <c r="J27" t="n">
-        <v>256</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
@@ -1367,25 +1118,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09</v>
+        <v>0.66</v>
       </c>
       <c r="F28" t="n">
-        <v>0.16</v>
+        <v>0.57</v>
       </c>
       <c r="G28" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1765</v>
-      </c>
-      <c r="J28" t="n">
-        <v>22</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="29">
@@ -1397,25 +1139,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="E29" t="n">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.24</v>
+        <v>0.59</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J29" t="n">
-        <v>49</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="30">
@@ -1431,25 +1164,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="F30" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="G30" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1764</v>
-      </c>
-      <c r="J30" t="n">
-        <v>22</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="31">
@@ -1461,25 +1185,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2</v>
+        <v>0.61</v>
       </c>
       <c r="G31" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1715</v>
-      </c>
-      <c r="J31" t="n">
-        <v>42</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="32">
@@ -1495,25 +1210,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.26</v>
+        <v>0.77</v>
       </c>
       <c r="F32" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="G32" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H32" t="n">
         <v>0.62</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1440</v>
-      </c>
-      <c r="J32" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -1525,31 +1231,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
       <c r="E33" t="n">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="G33" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1271</v>
-      </c>
-      <c r="J33" t="n">
-        <v>150</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>deepseek-r1_8b</t>
+          <t>mistral_7b</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1563,25 +1260,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G34" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1863</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="35">
@@ -1593,25 +1281,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="G35" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1716</v>
-      </c>
-      <c r="J35" t="n">
-        <v>24</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="36">
@@ -1627,25 +1306,16 @@
         </is>
       </c>
       <c r="D36" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.79</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1727</v>
-      </c>
-      <c r="J36" t="n">
-        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -1657,25 +1327,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E37" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="F37" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="G37" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1283</v>
-      </c>
-      <c r="J37" t="n">
-        <v>266</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
@@ -1691,25 +1352,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="E38" t="n">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="G38" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1507</v>
-      </c>
-      <c r="J38" t="n">
-        <v>282</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="39">
@@ -1721,25 +1373,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="F39" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="G39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1298</v>
-      </c>
-      <c r="J39" t="n">
-        <v>397</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
@@ -1755,25 +1398,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G40" t="n">
         <v>0.77</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1403</v>
-      </c>
-      <c r="J40" t="n">
-        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1785,25 +1419,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="E41" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="F41" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="G41" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1320</v>
-      </c>
-      <c r="J41" t="n">
-        <v>158</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/granularidade_grossa/results/rq2_table_worst.xlsx
+++ b/granularidade_grossa/results/rq2_table_worst.xlsx
@@ -870,7 +870,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>gemma_7b</t>
+          <t>mistral_7b</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -884,16 +884,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.44</v>
+        <v>0.83</v>
       </c>
       <c r="E18" t="n">
-        <v>0.59</v>
+        <v>0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="19">
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="F19" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="20">
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="E20" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="F20" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="21">
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="E21" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.66</v>
       </c>
     </row>
     <row r="22">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="E22" t="n">
-        <v>0.71</v>
+        <v>0.45</v>
       </c>
       <c r="F22" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G22" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="23">
@@ -997,16 +997,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="E23" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="F23" t="n">
         <v>0.57</v>
       </c>
       <c r="G23" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.43</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="F24" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="25">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
       <c r="E25" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="F25" t="n">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>llama3.2_3b</t>
+          <t>gemma_7b</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="F26" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="27">
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="E27" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="G27" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="28">
@@ -1118,16 +1118,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="E28" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="F28" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="G28" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E29" t="n">
         <v>0.8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="G29" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="30">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="F30" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="31">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="E31" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="F31" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="G31" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="32">
@@ -1210,16 +1210,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="E32" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="F32" t="n">
         <v>0.53</v>
       </c>
       <c r="G32" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="33">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.52</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.7</v>
-      </c>
       <c r="F33" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="G33" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>mistral_7b</t>
+          <t>llama3.2_3b</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="G34" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="35">
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="E35" t="n">
-        <v>0.28</v>
+        <v>0.67</v>
       </c>
       <c r="F35" t="n">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="G35" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="D36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.72</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.79</v>
       </c>
     </row>
     <row r="37">
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="E37" t="n">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="F37" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="38">
@@ -1352,16 +1352,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E38" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F38" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="G38" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="39">
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E39" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="F39" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="40">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E40" t="n">
-        <v>0.24</v>
+        <v>0.77</v>
       </c>
       <c r="F40" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="G40" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="41">
@@ -1419,16 +1419,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
       <c r="E41" t="n">
-        <v>0.23</v>
+        <v>0.7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="G41" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/granularidade_grossa/results/rq2_table_worst.xlsx
+++ b/granularidade_grossa/results/rq2_table_worst.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>deepseek-r1_8b</t>
+          <t>gemma_7b</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -508,16 +508,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04</v>
+        <v>0.59</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -554,16 +554,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>0.39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.11</v>
+        <v>0.74</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="G4" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="E5" t="n">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="G5" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.22</v>
+        <v>0.71</v>
       </c>
       <c r="F6" t="n">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="G6" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="F7" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="E8" t="n">
-        <v>0.28</v>
+        <v>0.67</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="G8" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="E9" t="n">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="F9" t="n">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="G9" t="n">
         <v>0.78</v>
@@ -682,7 +682,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>deepseek-r1_14b</t>
+          <t>deepseek-r1_8b</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="F10" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="n">
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="G12" t="n">
         <v>0.74</v>
@@ -763,16 +763,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="E13" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="F13" t="n">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="G14" t="n">
         <v>0.74</v>
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="G15" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="E16" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F16" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17">
@@ -855,609 +855,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F17" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>mistral_7b</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>zero_shot</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.78</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>one_shot</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>few_shot</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>auto_cot</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>gemma_7b</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>zero_shot</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>one_shot</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>few_shot</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>auto_cot</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>llama3.2_3b</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>zero_shot</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>one_shot</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>few_shot</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>auto_cot</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Role-based</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A34:A41"/>
+  <mergeCells count="10">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
